--- a/parts.xlsx
+++ b/parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Downloads\LEDs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44b596a51c046dd0/Dokumenty/Repositories/LEDs/board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE75E83-D7CF-46D0-8B23-150AE0864030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{6EE75E83-D7CF-46D0-8B23-150AE0864030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{552817B7-B170-4170-AB7E-786F9F917647}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="21705" xr2:uid="{50EAEA74-9C29-4A1D-92A9-45D75221801E}"/>
+    <workbookView xWindow="3810" yWindow="4545" windowWidth="28800" windowHeight="15825" xr2:uid="{50EAEA74-9C29-4A1D-92A9-45D75221801E}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>LCSC Number</t>
   </si>
   <si>
-    <t>Brightness sensor</t>
-  </si>
-  <si>
     <t>1M</t>
   </si>
   <si>
@@ -80,12 +77,6 @@
     <t>C2907114</t>
   </si>
   <si>
-    <t>4.7k</t>
-  </si>
-  <si>
-    <t>C3017722</t>
-  </si>
-  <si>
     <t>1.2k</t>
   </si>
   <si>
@@ -101,12 +92,6 @@
     <t>C3017758</t>
   </si>
   <si>
-    <t>90.9</t>
-  </si>
-  <si>
-    <t>C101232</t>
-  </si>
-  <si>
     <t>C3017772</t>
   </si>
   <si>
@@ -212,9 +197,6 @@
     <t>ESP32-C3 -WROOM</t>
   </si>
   <si>
-    <t>C2934560</t>
-  </si>
-  <si>
     <t>TP4056</t>
   </si>
   <si>
@@ -266,12 +248,6 @@
     <t>C429954</t>
   </si>
   <si>
-    <t>2pin power</t>
-  </si>
-  <si>
-    <t>C2685195</t>
-  </si>
-  <si>
     <t>Battery (18650) holder</t>
   </si>
   <si>
@@ -305,9 +281,6 @@
     <t>! JLCPCB total price (€)</t>
   </si>
   <si>
-    <t>! Actual price with delivery (€)</t>
-  </si>
-  <si>
     <t>Third party</t>
   </si>
   <si>
@@ -323,14 +296,101 @@
     <t>Price per unit (PLN)</t>
   </si>
   <si>
-    <t>! Amount</t>
+    <t>866k</t>
+  </si>
+  <si>
+    <t>C5126056</t>
+  </si>
+  <si>
+    <t>Photoresistor</t>
+  </si>
+  <si>
+    <t>Additional info</t>
+  </si>
+  <si>
+    <t>Temperature sensor</t>
+  </si>
+  <si>
+    <t>3.3V  voltage regulator</t>
+  </si>
+  <si>
+    <t>Voltage regulator -&gt; FB 0.6*(1+R1/R2)</t>
+  </si>
+  <si>
+    <t>Battery protection IC</t>
+  </si>
+  <si>
+    <t>Battery charger IC</t>
+  </si>
+  <si>
+    <t>Main CPU</t>
+  </si>
+  <si>
+    <t>P-channel 30V 1.7A</t>
+  </si>
+  <si>
+    <t>P-channel 30V 14A</t>
+  </si>
+  <si>
+    <t>N-channel 50V 0.2A</t>
+  </si>
+  <si>
+    <t>N-channel 30V 30A</t>
+  </si>
+  <si>
+    <t>LM358S</t>
+  </si>
+  <si>
+    <t>C83902</t>
+  </si>
+  <si>
+    <t>Dual amplifier</t>
+  </si>
+  <si>
+    <t>TUSB321</t>
+  </si>
+  <si>
+    <t>C139392</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USB Type-C Configuration Channel IC</t>
+  </si>
+  <si>
+    <t>C5160215</t>
+  </si>
+  <si>
+    <t>Condenser Microphone</t>
+  </si>
+  <si>
+    <t>Microphone</t>
+  </si>
+  <si>
+    <t>4pin power</t>
+  </si>
+  <si>
+    <t>C6332216</t>
+  </si>
+  <si>
+    <t>C2944070</t>
+  </si>
+  <si>
+    <t>! Price for amount</t>
+  </si>
+  <si>
+    <t>(FN) Sum</t>
+  </si>
+  <si>
+    <t>(FN)Sum</t>
+  </si>
+  <si>
+    <t>! LCSC total price (PLN) (?)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +407,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -356,7 +423,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -563,33 +630,62 @@
       <right style="thin">
         <color rgb="FF92D050"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF92D050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF92D050"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -599,98 +695,154 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,19 +1178,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0011D968-C472-4488-96CD-EDAB12747B1B}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="32.25" customWidth="1"/>
     <col min="6" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="27.125" customWidth="1"/>
@@ -1046,204 +1198,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>93</v>
+      <c r="E1" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="F1" s="2"/>
       <c r="H1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="22">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>93</v>
+      <c r="E2" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="F2" s="2"/>
       <c r="H2" s="1">
-        <v>4.47</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="22">
+        <v>5</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>93</v>
+      <c r="E4" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>93</v>
+      <c r="A5" s="34"/>
+      <c r="B5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="22">
+        <v>15</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="1">
-        <f>3.95*2</f>
-        <v>7.9</v>
+        <f>SUM(24.2, 6.25)</f>
+        <v>30.45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="22">
+        <v>3</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>93</v>
+      <c r="E7" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="F7" s="2"/>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>93</v>
+      <c r="A8" s="34"/>
+      <c r="B8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="22">
+        <v>2</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="F8" s="2"/>
       <c r="H8" s="1">
-        <v>41.06</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="22">
         <v>100</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>93</v>
+      <c r="C9" s="22">
+        <v>3</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>93</v>
+      <c r="A10" s="36"/>
+      <c r="B10" s="22">
+        <v>24</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="3">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>93</v>
+      <c r="A11" s="36"/>
+      <c r="B11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="1">
@@ -1251,537 +1403,636 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="28">
-        <v>1</v>
+      <c r="A12" s="35"/>
+      <c r="B12" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="42">
+        <f>SUM(C2:C11)</f>
+        <v>38</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="22">
+      <c r="A13" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="13">
         <v>4</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>93</v>
+      <c r="D13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="F13" s="2"/>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>93</v>
+      <c r="A14" s="36"/>
+      <c r="B14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="22">
+        <v>8</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1">
-        <f>((H8/H11 + H5/H11)*H2) + SUM(E40:E42)</f>
-        <v>74.520240000000001</v>
+        <f>((H5/H11)*H2) + H8/H11 + SUM(E48:E50)</f>
+        <v>98.946699999999993</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="22">
+        <v>7</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="26">
+        <f>SUM(C13:C15)</f>
+        <v>19</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="13">
+        <v>2</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="44">
+        <f>SUM(C17)</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3">
+      <c r="B19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="22">
+        <v>2</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="22">
+        <v>2</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="22">
+        <v>2</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="44">
+        <f>SUM(C19:C23)</f>
+        <v>8</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="13">
+        <v>2</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="22">
+        <v>8</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="22">
+        <v>2</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="22">
+        <v>1</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="44">
+        <f>SUM(C25:C28)</f>
+        <v>13</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="22">
+        <v>1</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="22">
+        <v>1</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="22">
+        <v>2</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="22">
+        <v>1</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="53"/>
+      <c r="B35" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="22">
+        <v>1</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="54"/>
+      <c r="B36" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="40">
+        <v>1</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
+      <c r="B37" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="40">
+        <v>1</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="54"/>
+      <c r="B38" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="40">
+        <v>1</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="44">
+        <f>SUM(C30:C38)</f>
+        <v>10</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="13">
+        <v>1</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="22">
+        <v>1</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="23">
+        <v>1</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="31"/>
+      <c r="B43" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="23">
+        <v>1</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="15">
+        <v>1</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="13">
+        <v>1</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="31"/>
+      <c r="B48" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="22">
+        <v>1</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="20">
         <v>5</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="28">
-        <v>2</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="22">
-        <v>1</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="18">
-        <v>2</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="22">
-        <v>2</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="18">
-        <v>1</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="22">
-        <v>1</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="18">
-        <v>1</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="22">
-        <v>1</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="11">
-        <v>1</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="11">
-        <v>1</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="24">
-        <v>1</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="22">
-        <v>1</v>
-      </c>
-      <c r="D37" s="22" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="18">
-        <v>1</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="32"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="34">
-        <v>5</v>
-      </c>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="34">
+      <c r="C49" s="22">
+        <v>1</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="20">
         <f>57.25/5</f>
         <v>11.45</v>
       </c>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="15">
-        <v>1</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="35">
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="39"/>
+      <c r="B50" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="9">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="21">
         <v>14.3</v>
       </c>
-      <c r="F42" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A32:A36"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A19:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/parts.xlsx
+++ b/parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44b596a51c046dd0/Dokumenty/Repositories/LEDs/board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{6EE75E83-D7CF-46D0-8B23-150AE0864030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{552817B7-B170-4170-AB7E-786F9F917647}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{6EE75E83-D7CF-46D0-8B23-150AE0864030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A0F7491-EB44-49D9-B736-1ED78C87ACF9}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="4545" windowWidth="28800" windowHeight="15825" xr2:uid="{50EAEA74-9C29-4A1D-92A9-45D75221801E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{50EAEA74-9C29-4A1D-92A9-45D75221801E}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
     <t>(FN)Sum</t>
   </si>
   <si>
-    <t>! LCSC total price (PLN) (?)</t>
+    <t>! LCSC total price (€)</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -752,26 +752,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -781,67 +771,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,6 +843,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1181,7 +1169,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,16 +1207,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="1">
         <v>6</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1236,34 +1224,34 @@
       </c>
       <c r="F2" s="2"/>
       <c r="H2" s="1">
-        <v>4.63</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="23">
-        <v>1</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1275,14 +1263,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="1">
         <v>15</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1290,19 +1278,19 @@
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="1">
-        <f>SUM(24.2, 6.25)</f>
-        <v>30.45</v>
+        <f>SUM(20.72, 4.07*5)</f>
+        <v>41.07</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1311,14 +1299,14 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="22">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -1330,14 +1318,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1345,18 +1333,18 @@
       </c>
       <c r="F8" s="2"/>
       <c r="H8" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="22">
+      <c r="A9" s="45"/>
+      <c r="B9" s="1">
         <v>100</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1365,14 +1353,14 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="22">
+      <c r="A10" s="46"/>
+      <c r="B10" s="1">
         <v>24</v>
       </c>
-      <c r="C10" s="22">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1384,17 +1372,17 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="23">
-        <v>1</v>
-      </c>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="22">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="38" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="2"/>
@@ -1403,15 +1391,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="33">
         <f>SUM(C2:C11)</f>
         <v>38</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1441,14 +1429,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1456,19 +1444,19 @@
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1">
-        <f>((H5/H11)*H2) + H8/H11 + SUM(E48:E50)</f>
-        <v>98.946699999999993</v>
+        <f>(H5/H11)*H2 + (H8/H11)*H2 + SUM(E48:E50)</f>
+        <v>116.3558</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="1">
         <v>7</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1477,20 +1465,19 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="24">
         <f>SUM(C13:C15)</f>
         <v>19</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="49"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -1508,16 +1495,16 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="35">
         <f>SUM(C17)</f>
         <v>2</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="27"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,14 +1526,14 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -1555,14 +1542,14 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -1571,14 +1558,14 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -1587,14 +1574,14 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -1603,20 +1590,20 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="43" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="35">
         <f>SUM(C19:C23)</f>
         <v>8</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="27"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -1628,74 +1615,74 @@
       <c r="D25" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="36" t="s">
         <v>99</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="1">
         <v>8</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="37" t="s">
         <v>98</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="37" t="s">
         <v>96</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="22">
-        <v>1</v>
-      </c>
-      <c r="D28" s="22" t="s">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="37" t="s">
         <v>97</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="43" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="35">
         <f>SUM(C25:C28)</f>
         <v>13</v>
       </c>
       <c r="D29" s="17"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="29" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -1707,154 +1694,154 @@
       <c r="D30" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="36" t="s">
         <v>95</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="22">
-        <v>1</v>
-      </c>
-      <c r="D31" s="22" t="s">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="37" t="s">
         <v>94</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="22">
-        <v>1</v>
-      </c>
-      <c r="D32" s="22" t="s">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="37" t="s">
         <v>93</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="1">
         <v>2</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="37" t="s">
         <v>92</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="22">
-        <v>1</v>
-      </c>
-      <c r="D34" s="22" t="s">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="37" t="s">
         <v>91</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="22">
-        <v>1</v>
-      </c>
-      <c r="D35" s="22" t="s">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="37" t="s">
         <v>90</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="40" t="s">
+      <c r="A36" s="43"/>
+      <c r="B36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="40">
-        <v>1</v>
-      </c>
-      <c r="D36" s="25" t="s">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="37" t="s">
         <v>102</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="40" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="40">
-        <v>1</v>
-      </c>
-      <c r="D37" s="25" t="s">
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="37" t="s">
         <v>105</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="40" t="s">
+      <c r="A38" s="43"/>
+      <c r="B38" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="40">
-        <v>1</v>
-      </c>
-      <c r="D38" s="25" t="s">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="37" t="s">
         <v>108</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="43" t="s">
+      <c r="A39" s="41"/>
+      <c r="B39" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="44">
+      <c r="C39" s="35">
         <f>SUM(C30:C38)</f>
         <v>10</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="E39" s="27"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="29" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -1872,14 +1859,14 @@
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="22" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="22">
-        <v>1</v>
-      </c>
-      <c r="D41" s="22" t="s">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="6" t="s">
@@ -1888,14 +1875,14 @@
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="23">
-        <v>1</v>
-      </c>
-      <c r="D42" s="23" t="s">
+      <c r="C42" s="22">
+        <v>1</v>
+      </c>
+      <c r="D42" s="22" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="6" t="s">
@@ -1904,14 +1891,14 @@
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="23" t="s">
+      <c r="A43" s="27"/>
+      <c r="B43" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="23">
-        <v>1</v>
-      </c>
-      <c r="D43" s="23" t="s">
+      <c r="C43" s="22">
+        <v>1</v>
+      </c>
+      <c r="D43" s="22" t="s">
         <v>110</v>
       </c>
       <c r="E43" s="6" t="s">
@@ -1919,7 +1906,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="15" t="s">
         <v>70</v>
       </c>
@@ -1934,7 +1921,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="29" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -1951,7 +1938,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="11" t="s">
         <v>75</v>
       </c>
@@ -1966,16 +1953,16 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="28" t="s">
+      <c r="B47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E47" s="19" t="s">
@@ -1983,14 +1970,14 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="22" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="22">
-        <v>1</v>
-      </c>
-      <c r="D48" s="29" t="s">
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E48" s="20">
@@ -1998,14 +1985,14 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="22">
-        <v>1</v>
-      </c>
-      <c r="D49" s="29" t="s">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E49" s="20">
@@ -2014,7 +2001,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="8" t="s">
         <v>83</v>
       </c>
